--- a/data_100_customers_corner_depot.xlsx
+++ b/data_100_customers_corner_depot.xlsx
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>93.17365010694836</v>
+        <v>56.4365401511278</v>
       </c>
       <c r="C3" t="n">
-        <v>36.04077701921992</v>
+        <v>56.84034314130042</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.95613213351643</v>
+        <v>49.70649410609354</v>
       </c>
       <c r="C4" t="n">
-        <v>39.83845961548477</v>
+        <v>57.30773193959531</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -523,13 +523,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3221766998600994</v>
+        <v>12.54134693945879</v>
       </c>
       <c r="C5" t="n">
-        <v>93.16350740151383</v>
+        <v>69.28224582848689</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62.83085093606297</v>
+        <v>89.26920343590488</v>
       </c>
       <c r="C6" t="n">
-        <v>57.77068443196385</v>
+        <v>78.26234254383672</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.28480504501687</v>
+        <v>68.23733258328588</v>
       </c>
       <c r="C7" t="n">
-        <v>3.59380196117226</v>
+        <v>92.11486270383092</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -580,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75.05220503930873</v>
+        <v>41.22094021847782</v>
       </c>
       <c r="C8" t="n">
-        <v>84.32907615018109</v>
+        <v>31.02283917483654</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -599,13 +599,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73.32889571685911</v>
+        <v>16.82777737346785</v>
       </c>
       <c r="C9" t="n">
-        <v>66.7213090329484</v>
+        <v>57.47823314151642</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45.30388215326562</v>
+        <v>31.48468438596673</v>
       </c>
       <c r="C10" t="n">
-        <v>82.66890063107604</v>
+        <v>59.28403757804514</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.4103142268742</v>
+        <v>6.871750316924985</v>
       </c>
       <c r="C11" t="n">
-        <v>22.201214014703</v>
+        <v>8.687044526163534</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>61.63266516278176</v>
+        <v>46.67625041233953</v>
       </c>
       <c r="C12" t="n">
-        <v>18.16519874941469</v>
+        <v>57.03602957848116</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -675,17 +675,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.88712059977005</v>
+        <v>94.61704643889497</v>
       </c>
       <c r="C13" t="n">
-        <v>20.06956280581075</v>
+        <v>78.72987245426005</v>
       </c>
       <c r="D13" t="n">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74.55263764639614</v>
+        <v>76.64260830467494</v>
       </c>
       <c r="C14" t="n">
-        <v>68.92570712623632</v>
+        <v>53.59308224778751</v>
       </c>
       <c r="D14" t="n">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -713,17 +713,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.95811783582158</v>
+        <v>34.85593738119312</v>
       </c>
       <c r="C15" t="n">
-        <v>89.55016110615533</v>
+        <v>6.338532820799625</v>
       </c>
       <c r="D15" t="n">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -732,17 +732,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17.89077999054779</v>
+        <v>35.07636745313442</v>
       </c>
       <c r="C16" t="n">
-        <v>15.99294927936091</v>
+        <v>57.71397322208962</v>
       </c>
       <c r="D16" t="n">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.41777726266138</v>
+        <v>2.287938260271971</v>
       </c>
       <c r="C17" t="n">
-        <v>44.67252980445694</v>
+        <v>96.13908157717449</v>
       </c>
       <c r="D17" t="n">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.9931232193271</v>
+        <v>85.13292898367388</v>
       </c>
       <c r="C18" t="n">
-        <v>14.54803968805136</v>
+        <v>50.35394677440206</v>
       </c>
       <c r="D18" t="n">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>97.10482406268397</v>
+        <v>59.64182397603074</v>
       </c>
       <c r="C19" t="n">
-        <v>64.01283767486819</v>
+        <v>35.37316709411707</v>
       </c>
       <c r="D19" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -808,17 +808,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.3405118243363</v>
+        <v>42.45247440440681</v>
       </c>
       <c r="C20" t="n">
-        <v>79.5809884537765</v>
+        <v>85.89108861648954</v>
       </c>
       <c r="D20" t="n">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.79541566008947</v>
+        <v>1.884854800443903</v>
       </c>
       <c r="C21" t="n">
-        <v>19.77540568050651</v>
+        <v>88.40193371805424</v>
       </c>
       <c r="D21" t="n">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -846,17 +846,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63.33754293964815</v>
+        <v>27.01077744184629</v>
       </c>
       <c r="C22" t="n">
-        <v>41.84205553736761</v>
+        <v>20.67383203984491</v>
       </c>
       <c r="D22" t="n">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -865,17 +865,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>78.17134492188251</v>
+        <v>57.38357339474837</v>
       </c>
       <c r="C23" t="n">
-        <v>17.67010753894873</v>
+        <v>83.35675298681508</v>
       </c>
       <c r="D23" t="n">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -884,17 +884,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>94.5490578951466</v>
+        <v>85.24837998752565</v>
       </c>
       <c r="C24" t="n">
-        <v>45.81906345286914</v>
+        <v>58.96205976966687</v>
       </c>
       <c r="D24" t="n">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.94259857601517</v>
+        <v>2.851856388436103</v>
       </c>
       <c r="C25" t="n">
-        <v>16.11723006568173</v>
+        <v>50.50862309762569</v>
       </c>
       <c r="D25" t="n">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -922,17 +922,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.07761915001766</v>
+        <v>9.82723455347595</v>
       </c>
       <c r="C26" t="n">
-        <v>43.49507201896493</v>
+        <v>81.6036134693106</v>
       </c>
       <c r="D26" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62.09127784424128</v>
+        <v>62.42690414380589</v>
       </c>
       <c r="C27" t="n">
-        <v>39.23885513351431</v>
+        <v>34.44121203408393</v>
       </c>
       <c r="D27" t="n">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38.47534761015068</v>
+        <v>30.64917919949817</v>
       </c>
       <c r="C28" t="n">
-        <v>88.28926449191763</v>
+        <v>12.23222510144913</v>
       </c>
       <c r="D28" t="n">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>94.41289229031563</v>
+        <v>39.1000271766055</v>
       </c>
       <c r="C29" t="n">
-        <v>94.65548393961703</v>
+        <v>55.67985082524964</v>
       </c>
       <c r="D29" t="n">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -998,17 +998,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22.93203553388977</v>
+        <v>41.91821783957936</v>
       </c>
       <c r="C30" t="n">
-        <v>1.849711496443684</v>
+        <v>28.25853306916783</v>
       </c>
       <c r="D30" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.85088265739241</v>
+        <v>57.72034064827374</v>
       </c>
       <c r="C31" t="n">
-        <v>53.86385265797367</v>
+        <v>22.05957231396054</v>
       </c>
       <c r="D31" t="n">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.80440248987087</v>
+        <v>90.93906191247311</v>
       </c>
       <c r="C32" t="n">
-        <v>45.85806986991211</v>
+        <v>65.5498445602848</v>
       </c>
       <c r="D32" t="n">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>backhaul</t>
+          <t>linehaul</t>
         </is>
       </c>
     </row>
@@ -1055,13 +1055,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>56.37043313924057</v>
+        <v>74.71865661994785</v>
       </c>
       <c r="C33" t="n">
-        <v>83.49334809191666</v>
+        <v>12.554657410042</v>
       </c>
       <c r="D33" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1074,13 +1074,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.86808917243035</v>
+        <v>31.49368591002042</v>
       </c>
       <c r="C34" t="n">
-        <v>2.8719087775403</v>
+        <v>74.12930465487219</v>
       </c>
       <c r="D34" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1093,13 +1093,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>62.35800195480842</v>
+        <v>79.31202936739629</v>
       </c>
       <c r="C35" t="n">
-        <v>50.19672418762676</v>
+        <v>56.40876496437853</v>
       </c>
       <c r="D35" t="n">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>39.6606255637582</v>
+        <v>44.37047945759197</v>
       </c>
       <c r="C36" t="n">
-        <v>42.27961692890708</v>
+        <v>43.71453579266998</v>
       </c>
       <c r="D36" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.74740647364989</v>
+        <v>31.12904682536279</v>
       </c>
       <c r="C37" t="n">
-        <v>30.42502928334224</v>
+        <v>48.72257474707008</v>
       </c>
       <c r="D37" t="n">
-        <v>-18</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>97.51325536285242</v>
+        <v>22.34554271922098</v>
       </c>
       <c r="C38" t="n">
-        <v>9.06830532606091</v>
+        <v>78.5483420136634</v>
       </c>
       <c r="D38" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>58.89245298356607</v>
+        <v>67.11895900363916</v>
       </c>
       <c r="C39" t="n">
-        <v>6.421687149940835</v>
+        <v>65.2966494017565</v>
       </c>
       <c r="D39" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1188,13 +1188,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37.29161965206175</v>
+        <v>52.20380005118436</v>
       </c>
       <c r="C40" t="n">
-        <v>92.29506939486591</v>
+        <v>97.53690516874833</v>
       </c>
       <c r="D40" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.51511451480232</v>
+        <v>27.15583006975009</v>
       </c>
       <c r="C41" t="n">
-        <v>85.75221852398525</v>
+        <v>54.63946077799322</v>
       </c>
       <c r="D41" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1226,13 +1226,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>76.90980138640319</v>
+        <v>77.10736925411376</v>
       </c>
       <c r="C42" t="n">
-        <v>44.89690631199797</v>
+        <v>3.327267537657486</v>
       </c>
       <c r="D42" t="n">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.7334999094737</v>
+        <v>92.70474987290923</v>
       </c>
       <c r="C43" t="n">
-        <v>54.01203457177333</v>
+        <v>33.56480538116967</v>
       </c>
       <c r="D43" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1264,13 +1264,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.4135123064174</v>
+        <v>86.51953226588154</v>
       </c>
       <c r="C44" t="n">
-        <v>73.42333979009824</v>
+        <v>15.42745413517815</v>
       </c>
       <c r="D44" t="n">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.32566193554027</v>
+        <v>38.38182108097322</v>
       </c>
       <c r="C45" t="n">
-        <v>85.6337938705672</v>
+        <v>97.51478389264592</v>
       </c>
       <c r="D45" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1302,13 +1302,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69.63245866026541</v>
+        <v>49.30336937821585</v>
       </c>
       <c r="C46" t="n">
-        <v>32.57263006123843</v>
+        <v>85.51900770325047</v>
       </c>
       <c r="D46" t="n">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1321,13 +1321,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24.40292584486331</v>
+        <v>13.49937618658038</v>
       </c>
       <c r="C47" t="n">
-        <v>15.40740907142976</v>
+        <v>3.913357135025397</v>
       </c>
       <c r="D47" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1340,13 +1340,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>65.03297607839346</v>
+        <v>41.29227316058001</v>
       </c>
       <c r="C48" t="n">
-        <v>52.0576705144228</v>
+        <v>56.12897332738</v>
       </c>
       <c r="D48" t="n">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1359,13 +1359,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>61.61696170385017</v>
+        <v>59.94981281055397</v>
       </c>
       <c r="C49" t="n">
-        <v>58.26342778352996</v>
+        <v>65.5249257751376</v>
       </c>
       <c r="D49" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1378,13 +1378,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.95855640077031</v>
+        <v>49.9669531492758</v>
       </c>
       <c r="C50" t="n">
-        <v>74.58102841317343</v>
+        <v>80.27745197648386</v>
       </c>
       <c r="D50" t="n">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1397,13 +1397,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.61422881060141</v>
+        <v>81.5949424783244</v>
       </c>
       <c r="C51" t="n">
-        <v>81.60371539695632</v>
+        <v>3.390679339342229</v>
       </c>
       <c r="D51" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1416,13 +1416,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>88.1431482050257</v>
+        <v>71.48089113951548</v>
       </c>
       <c r="C52" t="n">
-        <v>50.72477195000401</v>
+        <v>91.19075119797024</v>
       </c>
       <c r="D52" t="n">
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.42928006952689</v>
+        <v>8.413270815161001</v>
       </c>
       <c r="C53" t="n">
-        <v>72.41003905340106</v>
+        <v>30.07604587149325</v>
       </c>
       <c r="D53" t="n">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>93.64310900970756</v>
+        <v>65.37087887680576</v>
       </c>
       <c r="C54" t="n">
-        <v>10.13943199927512</v>
+        <v>56.81132669984697</v>
       </c>
       <c r="D54" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.38932855066888</v>
+        <v>22.41291735469893</v>
       </c>
       <c r="C55" t="n">
-        <v>46.96350229514699</v>
+        <v>79.67517553334888</v>
       </c>
       <c r="D55" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>85.48387658489111</v>
+        <v>70.60002859928181</v>
       </c>
       <c r="C56" t="n">
-        <v>83.06957357911978</v>
+        <v>11.13660332635952</v>
       </c>
       <c r="D56" t="n">
         <v>-12</v>
@@ -1511,13 +1511,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>91.87510444917918</v>
+        <v>53.5033566513757</v>
       </c>
       <c r="C57" t="n">
-        <v>58.89889771792646</v>
+        <v>74.7952779238706</v>
       </c>
       <c r="D57" t="n">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1530,13 +1530,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.492724614801606</v>
+        <v>61.50107249685247</v>
       </c>
       <c r="C58" t="n">
-        <v>88.39069462209459</v>
+        <v>74.74082365190907</v>
       </c>
       <c r="D58" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1549,13 +1549,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18.86320008591282</v>
+        <v>36.98731259378757</v>
       </c>
       <c r="C59" t="n">
-        <v>14.78374913333048</v>
+        <v>54.02506604550504</v>
       </c>
       <c r="D59" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.843420744525893</v>
+        <v>47.41249224463806</v>
       </c>
       <c r="C60" t="n">
-        <v>85.17161494690644</v>
+        <v>74.01699050938917</v>
       </c>
       <c r="D60" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1587,13 +1587,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38.77245573562408</v>
+        <v>35.56855770478773</v>
       </c>
       <c r="C61" t="n">
-        <v>50.76635500841537</v>
+        <v>85.78945747292795</v>
       </c>
       <c r="D61" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1606,13 +1606,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>94.75685518321805</v>
+        <v>70.01319402284579</v>
       </c>
       <c r="C62" t="n">
-        <v>19.35009682756182</v>
+        <v>17.76978018944327</v>
       </c>
       <c r="D62" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1625,13 +1625,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>71.63537863601265</v>
+        <v>75.15028231923712</v>
       </c>
       <c r="C63" t="n">
-        <v>3.317466652649947</v>
+        <v>24.8087910467669</v>
       </c>
       <c r="D63" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1644,13 +1644,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>51.53110617611456</v>
+        <v>41.50577923061811</v>
       </c>
       <c r="C64" t="n">
-        <v>53.40702535513257</v>
+        <v>78.8764940377487</v>
       </c>
       <c r="D64" t="n">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1663,13 +1663,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>91.41870854703534</v>
+        <v>0.08600277010843982</v>
       </c>
       <c r="C65" t="n">
-        <v>80.2899016414236</v>
+        <v>55.12056258541166</v>
       </c>
       <c r="D65" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1682,13 +1682,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74.6911484336273</v>
+        <v>10.31336145880025</v>
       </c>
       <c r="C66" t="n">
-        <v>95.03496981998133</v>
+        <v>71.82245625765798</v>
       </c>
       <c r="D66" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1701,13 +1701,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49.53783405465227</v>
+        <v>98.1461951284641</v>
       </c>
       <c r="C67" t="n">
-        <v>69.15957290412379</v>
+        <v>51.3518106545319</v>
       </c>
       <c r="D67" t="n">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>61.98202646594619</v>
+        <v>84.41841163844913</v>
       </c>
       <c r="C68" t="n">
-        <v>4.870833948176301</v>
+        <v>16.37289252500631</v>
       </c>
       <c r="D68" t="n">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1739,13 +1739,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.85202900918213</v>
+        <v>32.67794771706116</v>
       </c>
       <c r="C69" t="n">
-        <v>70.37343214864357</v>
+        <v>62.88192256354866</v>
       </c>
       <c r="D69" t="n">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>69.70905310101456</v>
+        <v>73.7084215068068</v>
       </c>
       <c r="C70" t="n">
-        <v>3.065625885062906</v>
+        <v>95.83469750008253</v>
       </c>
       <c r="D70" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49.86633565351974</v>
+        <v>32.81032573327113</v>
       </c>
       <c r="C71" t="n">
-        <v>37.53211783693868</v>
+        <v>34.01047928855667</v>
       </c>
       <c r="D71" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.478123561678624</v>
+        <v>8.181694270858909</v>
       </c>
       <c r="C72" t="n">
-        <v>3.812874321376847</v>
+        <v>79.20899908420226</v>
       </c>
       <c r="D72" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1815,10 +1815,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.97219849600323</v>
+        <v>98.54824319790659</v>
       </c>
       <c r="C73" t="n">
-        <v>96.04893128158028</v>
+        <v>6.71130130434805</v>
       </c>
       <c r="D73" t="n">
         <v>-12</v>
@@ -1834,13 +1834,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>58.13798765718325</v>
+        <v>97.34063064867343</v>
       </c>
       <c r="C74" t="n">
-        <v>87.96970771348349</v>
+        <v>40.32071597687031</v>
       </c>
       <c r="D74" t="n">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>64.88633872540736</v>
+        <v>4.420491729147202</v>
       </c>
       <c r="C75" t="n">
-        <v>9.760390887666869</v>
+        <v>4.646705396354522</v>
       </c>
       <c r="D75" t="n">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>79.30021880945084</v>
+        <v>40.38426140490225</v>
       </c>
       <c r="C76" t="n">
-        <v>76.06084112902037</v>
+        <v>49.94039918102281</v>
       </c>
       <c r="D76" t="n">
         <v>-14</v>
@@ -1891,13 +1891,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.080187514728133</v>
+        <v>50.26100071118636</v>
       </c>
       <c r="C77" t="n">
-        <v>18.3683161051485</v>
+        <v>73.88659916846883</v>
       </c>
       <c r="D77" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1910,13 +1910,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.77769956042857</v>
+        <v>29.07785866007384</v>
       </c>
       <c r="C78" t="n">
-        <v>29.3978184786871</v>
+        <v>22.20584109940446</v>
       </c>
       <c r="D78" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1929,13 +1929,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83.9566362655772</v>
+        <v>73.80139330069653</v>
       </c>
       <c r="C79" t="n">
-        <v>58.36864450154735</v>
+        <v>96.4732620284092</v>
       </c>
       <c r="D79" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1948,13 +1948,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.46787379095078</v>
+        <v>18.32116233100515</v>
       </c>
       <c r="C80" t="n">
-        <v>60.3973455369423</v>
+        <v>65.17571804551511</v>
       </c>
       <c r="D80" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.769033819529378</v>
+        <v>32.78390407922447</v>
       </c>
       <c r="C81" t="n">
-        <v>79.23726905311412</v>
+        <v>6.544721082548266</v>
       </c>
       <c r="D81" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1986,13 +1986,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>61.5242854253144</v>
+        <v>17.35815356420242</v>
       </c>
       <c r="C82" t="n">
-        <v>19.49176952503423</v>
+        <v>79.7491846286771</v>
       </c>
       <c r="D82" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2005,13 +2005,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.66256768578806</v>
+        <v>86.42918008356713</v>
       </c>
       <c r="C83" t="n">
-        <v>39.1994654461271</v>
+        <v>22.02116944704798</v>
       </c>
       <c r="D83" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.87952751542943</v>
+        <v>54.10033135995123</v>
       </c>
       <c r="C84" t="n">
-        <v>82.10034478650384</v>
+        <v>59.59281095226411</v>
       </c>
       <c r="D84" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2043,13 +2043,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>52.43861993840188</v>
+        <v>56.07568675232108</v>
       </c>
       <c r="C85" t="n">
-        <v>16.49844705121971</v>
+        <v>37.68099472059146</v>
       </c>
       <c r="D85" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2062,13 +2062,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>42.89997059325109</v>
+        <v>82.74517820776427</v>
       </c>
       <c r="C86" t="n">
-        <v>7.836470603800938</v>
+        <v>5.706330695655226</v>
       </c>
       <c r="D86" t="n">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.74511695751881</v>
+        <v>44.97338114418761</v>
       </c>
       <c r="C87" t="n">
-        <v>56.06935996954594</v>
+        <v>99.74069087327526</v>
       </c>
       <c r="D87" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2100,13 +2100,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.2498452285555</v>
+        <v>20.22358747007145</v>
       </c>
       <c r="C88" t="n">
-        <v>77.3846635706288</v>
+        <v>92.70303925869122</v>
       </c>
       <c r="D88" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2119,13 +2119,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.99551944681245</v>
+        <v>45.46802215001829</v>
       </c>
       <c r="C89" t="n">
-        <v>2.41614257517947</v>
+        <v>1.287603519009362</v>
       </c>
       <c r="D89" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2138,13 +2138,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.35561078462004</v>
+        <v>86.0790186685405</v>
       </c>
       <c r="C90" t="n">
-        <v>24.31818641421449</v>
+        <v>22.01580449131189</v>
       </c>
       <c r="D90" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2157,13 +2157,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.60368368154781</v>
+        <v>42.52654226659084</v>
       </c>
       <c r="C91" t="n">
-        <v>56.18360516901382</v>
+        <v>54.79000607675382</v>
       </c>
       <c r="D91" t="n">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>70.829180120823</v>
+        <v>46.83472887425445</v>
       </c>
       <c r="C92" t="n">
-        <v>60.65143050760858</v>
+        <v>36.93208276479834</v>
       </c>
       <c r="D92" t="n">
         <v>-15</v>
@@ -2195,13 +2195,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.05029753902473</v>
+        <v>49.23741161660361</v>
       </c>
       <c r="C93" t="n">
-        <v>82.84797021257883</v>
+        <v>33.09883481460781</v>
       </c>
       <c r="D93" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2214,13 +2214,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.321549809182491</v>
+        <v>46.87287505356876</v>
       </c>
       <c r="C94" t="n">
-        <v>63.04734135216704</v>
+        <v>11.24831361786751</v>
       </c>
       <c r="D94" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2233,13 +2233,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>77.41211975339833</v>
+        <v>61.69174492675899</v>
       </c>
       <c r="C95" t="n">
-        <v>17.14148979452784</v>
+        <v>5.206897376117004</v>
       </c>
       <c r="D95" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>97.55184601018992</v>
+        <v>92.22789803514816</v>
       </c>
       <c r="C96" t="n">
-        <v>22.21926442627989</v>
+        <v>39.26456082858272</v>
       </c>
       <c r="D96" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>52.70273972649851</v>
+        <v>78.90744656905638</v>
       </c>
       <c r="C97" t="n">
-        <v>61.6809475568175</v>
+        <v>53.48084076462568</v>
       </c>
       <c r="D97" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2290,13 +2290,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.1349525562165</v>
+        <v>34.34511226227788</v>
       </c>
       <c r="C98" t="n">
-        <v>92.1396523023468</v>
+        <v>50.71008095365517</v>
       </c>
       <c r="D98" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2309,13 +2309,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>60.05243434609875</v>
+        <v>39.8944125908607</v>
       </c>
       <c r="C99" t="n">
-        <v>81.36046055926582</v>
+        <v>51.11959212668273</v>
       </c>
       <c r="D99" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2328,13 +2328,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>77.20872962764282</v>
+        <v>88.68290944177457</v>
       </c>
       <c r="C100" t="n">
-        <v>96.73656486373584</v>
+        <v>22.08859347664698</v>
       </c>
       <c r="D100" t="n">
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2347,13 +2347,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>79.05667276205976</v>
+        <v>14.35623921543295</v>
       </c>
       <c r="C101" t="n">
-        <v>57.32496284802426</v>
+        <v>29.7181344770886</v>
       </c>
       <c r="D101" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2366,13 +2366,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>55.37664976253277</v>
+        <v>43.25595856300918</v>
       </c>
       <c r="C102" t="n">
-        <v>9.60515189520973</v>
+        <v>55.20405019197992</v>
       </c>
       <c r="D102" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
